--- a/app/src/test/java/Observers/Export_Data_27_Aug_3pm.xlsx
+++ b/app/src/test/java/Observers/Export_Data_27_Aug_3pm.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Uni 2018\Sem 2\Capstone\Testing\Observers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB606C-96DA-4271-ACB8-FF8838B70098}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EE699F-E958-455E-AAC3-02823765E31D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A330BECD-E836-4AC6-938E-7E613B009CCC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{A330BECD-E836-4AC6-938E-7E613B009CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,32 +57,32 @@
     <t>Test Date: 27th August 2018</t>
   </si>
   <si>
-    <t>Comments: Cannot fully test all pathways due to the requirement of a valid FIleInputStream Object which cannot be mocked due to Framework of Android Studio and it being a core object</t>
-  </si>
-  <si>
     <t>Assumptions/Dependencies: No default value is allowed</t>
   </si>
   <si>
-    <t>File_Stream_Null</t>
-  </si>
-  <si>
-    <t>input_Stream = Null</t>
-  </si>
-  <si>
     <t>NullPointerException</t>
   </si>
   <si>
-    <t>NullPointerException was thrown from the correct area</t>
-  </si>
-  <si>
-    <t>Purpose:  Unit test the locial structure of the Export_Data Class and its Interface</t>
+    <t>Purpose:  Unit test the logical structure of the Export_Data Class and its Interface</t>
+  </si>
+  <si>
+    <t>Input_Stream_And_Output_Stream_Null</t>
+  </si>
+  <si>
+    <t>input_Stream = Null, output_Stream = Null</t>
+  </si>
+  <si>
+    <t>NullPointerException thrown from the Input_Stream check in the resulting if statement check and cannot check if the Output_Stream exception throw works</t>
+  </si>
+  <si>
+    <t>Comments: Cannot fully test all pathways due to the requirement of a valid FileInputStream and FileOutputStream Object, both of which cannot be mocked due to Framework of Android Studio and it being a core object</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,12 +104,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -194,9 +188,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -539,7 +530,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="A6" sqref="A3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,69 +541,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -631,20 +622,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
